--- a/Data/8. Odluka.xlsx
+++ b/Data/8. Odluka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngersak\Documents\Rstudio\HUSZPO_clanak-nasadi\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngersak\Documents\GitHub\HUSZPO_conference-article\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DE521A-5D21-461D-9862-9D9403E74E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C66A98-4674-4D75-938D-E5694A0500C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1176,14 +1176,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="O172" sqref="O172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="6" max="6" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
